--- a/Graph Results/Refined Graph Results.xlsx
+++ b/Graph Results/Refined Graph Results.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Facebook" sheetId="1" r:id="rId1"/>
     <sheet name="CondMat" sheetId="2" r:id="rId2"/>
     <sheet name="Astro PH" sheetId="3" r:id="rId3"/>
     <sheet name="Enron" sheetId="4" r:id="rId4"/>
-    <sheet name="Epinions" sheetId="5" r:id="rId5"/>
-    <sheet name="Youtube" sheetId="6" r:id="rId6"/>
-    <sheet name="Directed Epinions" sheetId="7" r:id="rId7"/>
-    <sheet name="Directed Wikivote" sheetId="8" r:id="rId8"/>
+    <sheet name="Autonomous" sheetId="9" r:id="rId5"/>
+    <sheet name="Epinions" sheetId="5" r:id="rId6"/>
+    <sheet name="Youtube" sheetId="6" r:id="rId7"/>
+    <sheet name="Directed Epinions" sheetId="7" r:id="rId8"/>
+    <sheet name="Directed Wikivote" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="71">
   <si>
     <t>Original</t>
   </si>
@@ -159,9 +160,6 @@
     <t>Page Rank (Top 1%) / 56</t>
   </si>
   <si>
-    <t>Approx. Diameter (11)</t>
-  </si>
-  <si>
     <t xml:space="preserve">T Top 8 </t>
   </si>
   <si>
@@ -196,6 +194,57 @@
   </si>
   <si>
     <t>Approx. Diameter (7)</t>
+  </si>
+  <si>
+    <t>Tree 3 v2</t>
+  </si>
+  <si>
+    <t>Tree 5 v2</t>
+  </si>
+  <si>
+    <t>Largest Component (6474)</t>
+  </si>
+  <si>
+    <t>Top 15 PR Vertices</t>
+  </si>
+  <si>
+    <t>Approx. Diameter (9)</t>
+  </si>
+  <si>
+    <t>Approx. Diameter (13)</t>
+  </si>
+  <si>
+    <t>Approx. Diameter (15)</t>
+  </si>
+  <si>
+    <t>Onion Layers</t>
+  </si>
+  <si>
+    <t>Layer 1</t>
+  </si>
+  <si>
+    <t>Layer 2</t>
+  </si>
+  <si>
+    <t>Layer 3</t>
+  </si>
+  <si>
+    <t>Layer 5</t>
+  </si>
+  <si>
+    <t>Layer 4</t>
+  </si>
+  <si>
+    <t>Layer 0</t>
+  </si>
+  <si>
+    <t>Layer 6</t>
+  </si>
+  <si>
+    <t>Layer 7</t>
+  </si>
+  <si>
+    <t>Layer 8</t>
   </si>
 </sst>
 </file>
@@ -529,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A24" sqref="A24:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,11 +716,77 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1309,6 +1424,416 @@
       <c r="M22" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>115</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>75</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>75</v>
+      </c>
+      <c r="F26">
+        <v>75</v>
+      </c>
+      <c r="G26">
+        <v>2934</v>
+      </c>
+      <c r="H26">
+        <v>2660</v>
+      </c>
+      <c r="I26">
+        <v>1942</v>
+      </c>
+      <c r="J26">
+        <v>870</v>
+      </c>
+      <c r="K26">
+        <v>3462</v>
+      </c>
+      <c r="L26">
+        <v>3211</v>
+      </c>
+      <c r="M26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>108</v>
+      </c>
+      <c r="C27">
+        <v>3964</v>
+      </c>
+      <c r="D27">
+        <v>108</v>
+      </c>
+      <c r="E27">
+        <v>108</v>
+      </c>
+      <c r="F27">
+        <v>108</v>
+      </c>
+      <c r="G27">
+        <v>1105</v>
+      </c>
+      <c r="H27">
+        <v>1082</v>
+      </c>
+      <c r="I27">
+        <v>946</v>
+      </c>
+      <c r="J27">
+        <v>638</v>
+      </c>
+      <c r="K27">
+        <v>567</v>
+      </c>
+      <c r="L27">
+        <v>642</v>
+      </c>
+      <c r="M27">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>102</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>102</v>
+      </c>
+      <c r="E28">
+        <v>102</v>
+      </c>
+      <c r="F28">
+        <v>102</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>225</v>
+      </c>
+      <c r="I28">
+        <v>608</v>
+      </c>
+      <c r="J28">
+        <v>438</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>168</v>
+      </c>
+      <c r="M28">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29">
+        <v>120</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3754</v>
+      </c>
+      <c r="E29">
+        <v>120</v>
+      </c>
+      <c r="F29">
+        <v>120</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>72</v>
+      </c>
+      <c r="I29">
+        <v>308</v>
+      </c>
+      <c r="J29">
+        <v>446</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>18</v>
+      </c>
+      <c r="M29">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>134</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>134</v>
+      </c>
+      <c r="F30">
+        <v>134</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>169</v>
+      </c>
+      <c r="J30">
+        <v>514</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31">
+        <v>118</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>118</v>
+      </c>
+      <c r="F31">
+        <v>118</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>49</v>
+      </c>
+      <c r="J31">
+        <v>657</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32">
+        <v>152</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>152</v>
+      </c>
+      <c r="F32">
+        <v>152</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <v>262</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>117</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>3230</v>
+      </c>
+      <c r="F33">
+        <v>117</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>107</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1318,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1937,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -1455,11 +1980,77 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <v>17</v>
+      </c>
+      <c r="M5">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2095,6 +2686,416 @@
       <c r="M22" s="2">
         <f t="shared" si="3"/>
         <v>0.97546012269938653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>85167</v>
+      </c>
+      <c r="C25">
+        <v>85167</v>
+      </c>
+      <c r="D25">
+        <v>85167</v>
+      </c>
+      <c r="E25">
+        <v>85167</v>
+      </c>
+      <c r="F25">
+        <v>85167</v>
+      </c>
+      <c r="G25">
+        <v>85167</v>
+      </c>
+      <c r="H25">
+        <v>85167</v>
+      </c>
+      <c r="I25">
+        <v>85167</v>
+      </c>
+      <c r="J25">
+        <v>85167</v>
+      </c>
+      <c r="K25">
+        <v>86937</v>
+      </c>
+      <c r="L25">
+        <v>86937</v>
+      </c>
+      <c r="M25">
+        <v>85167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>2520</v>
+      </c>
+      <c r="C26">
+        <v>2520</v>
+      </c>
+      <c r="D26">
+        <v>2520</v>
+      </c>
+      <c r="E26">
+        <v>2520</v>
+      </c>
+      <c r="F26">
+        <v>2520</v>
+      </c>
+      <c r="G26">
+        <v>10675</v>
+      </c>
+      <c r="H26">
+        <v>6412</v>
+      </c>
+      <c r="I26">
+        <v>3302</v>
+      </c>
+      <c r="J26">
+        <v>2555</v>
+      </c>
+      <c r="K26">
+        <v>9550</v>
+      </c>
+      <c r="L26">
+        <v>8526</v>
+      </c>
+      <c r="M26">
+        <v>8594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>3638</v>
+      </c>
+      <c r="C27">
+        <v>20613</v>
+      </c>
+      <c r="D27">
+        <v>3638</v>
+      </c>
+      <c r="E27">
+        <v>3638</v>
+      </c>
+      <c r="F27">
+        <v>3638</v>
+      </c>
+      <c r="G27">
+        <v>12458</v>
+      </c>
+      <c r="H27">
+        <v>5616</v>
+      </c>
+      <c r="I27">
+        <v>3969</v>
+      </c>
+      <c r="J27">
+        <v>3650</v>
+      </c>
+      <c r="K27">
+        <v>7844</v>
+      </c>
+      <c r="L27">
+        <v>7065</v>
+      </c>
+      <c r="M27">
+        <v>5971</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>3510</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>3519</v>
+      </c>
+      <c r="E28">
+        <v>3510</v>
+      </c>
+      <c r="F28">
+        <v>3510</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>6973</v>
+      </c>
+      <c r="I28">
+        <v>4087</v>
+      </c>
+      <c r="J28">
+        <v>3522</v>
+      </c>
+      <c r="K28">
+        <v>3969</v>
+      </c>
+      <c r="L28">
+        <v>4179</v>
+      </c>
+      <c r="M28">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29">
+        <v>3051</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>13456</v>
+      </c>
+      <c r="E29">
+        <v>3051</v>
+      </c>
+      <c r="F29">
+        <v>3051</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>4132</v>
+      </c>
+      <c r="I29">
+        <v>4934</v>
+      </c>
+      <c r="J29">
+        <v>3079</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1593</v>
+      </c>
+      <c r="M29">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>2335</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2335</v>
+      </c>
+      <c r="F30">
+        <v>2335</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>4812</v>
+      </c>
+      <c r="J30">
+        <v>2448</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31">
+        <v>2104</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2107</v>
+      </c>
+      <c r="F31">
+        <v>2104</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1789</v>
+      </c>
+      <c r="J31">
+        <v>2635</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32">
+        <v>1595</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1696</v>
+      </c>
+      <c r="F32">
+        <v>1595</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>186</v>
+      </c>
+      <c r="J32">
+        <v>2658</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>1196</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>4276</v>
+      </c>
+      <c r="F33">
+        <v>1196</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>54</v>
+      </c>
+      <c r="J33">
+        <v>2055</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2104,10 +3105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,11 +3243,77 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2681,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:M20" si="0">SUM(C18, C19)</f>
+        <f t="shared" ref="C20:J20" si="0">SUM(C18, C19)</f>
         <v>187</v>
       </c>
       <c r="D20">
@@ -2713,7 +3780,7 @@
         <v>175</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:L20" si="1">SUM(K18, K19)</f>
+        <f t="shared" ref="K20" si="1">SUM(K18, K19)</f>
         <v>161</v>
       </c>
       <c r="L20">
@@ -2734,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21:M23" si="3">C18/200</f>
+        <f t="shared" ref="C21:J21" si="3">C18/200</f>
         <v>0.54</v>
       </c>
       <c r="D21" s="2">
@@ -2787,47 +3854,47 @@
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <f>C19/200</f>
+        <f t="shared" ref="C22:J23" si="7">C19/200</f>
         <v>0.39500000000000002</v>
       </c>
       <c r="D22" s="2">
-        <f>D19/200</f>
+        <f t="shared" si="7"/>
         <v>0.37</v>
       </c>
       <c r="E22" s="2">
-        <f>E19/200</f>
+        <f t="shared" si="7"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="F22" s="2">
-        <f>F19/200</f>
+        <f t="shared" si="7"/>
         <v>0.20499999999999999</v>
       </c>
       <c r="G22" s="2">
-        <f>G19/200</f>
+        <f t="shared" si="7"/>
         <v>0.38500000000000001</v>
       </c>
       <c r="H22" s="2">
-        <f>H19/200</f>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="I22" s="2">
-        <f>I19/200</f>
+        <f t="shared" si="7"/>
         <v>0.36499999999999999</v>
       </c>
       <c r="J22" s="2">
-        <f>J19/200</f>
+        <f t="shared" si="7"/>
         <v>0.26</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" ref="K22:L22" si="7">K19/200</f>
+        <f t="shared" ref="K22:L22" si="8">K19/200</f>
         <v>0.45500000000000002</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.42499999999999999</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" ref="M22" si="8">M19/200</f>
+        <f t="shared" ref="M22" si="9">M19/200</f>
         <v>0.4</v>
       </c>
     </row>
@@ -2840,48 +3907,446 @@
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <f>C20/200</f>
+        <f t="shared" si="7"/>
         <v>0.93500000000000005</v>
       </c>
       <c r="D23" s="2">
-        <f>D20/200</f>
+        <f t="shared" si="7"/>
         <v>0.89500000000000002</v>
       </c>
       <c r="E23" s="2">
-        <f>E20/200</f>
+        <f t="shared" si="7"/>
         <v>0.93</v>
       </c>
       <c r="F23" s="2">
-        <f>F20/200</f>
+        <f t="shared" si="7"/>
         <v>0.995</v>
       </c>
       <c r="G23" s="2">
-        <f>G20/200</f>
+        <f t="shared" si="7"/>
         <v>0.91500000000000004</v>
       </c>
       <c r="H23" s="2">
-        <f>H20/200</f>
+        <f t="shared" si="7"/>
         <v>0.89</v>
       </c>
       <c r="I23" s="2">
-        <f>I20/200</f>
+        <f t="shared" si="7"/>
         <v>0.83</v>
       </c>
       <c r="J23" s="2">
-        <f>J20/200</f>
+        <f t="shared" si="7"/>
         <v>0.875</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:L23" si="9">K20/200</f>
+        <f t="shared" ref="K23:L23" si="10">K20/200</f>
         <v>0.80500000000000005</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" ref="M23" si="10">M20/200</f>
+        <f t="shared" ref="M23" si="11">M20/200</f>
         <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>56</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26">
+        <v>114508</v>
+      </c>
+      <c r="C26">
+        <v>114508</v>
+      </c>
+      <c r="D26">
+        <v>114508</v>
+      </c>
+      <c r="E26">
+        <v>114508</v>
+      </c>
+      <c r="F26">
+        <v>114508</v>
+      </c>
+      <c r="G26">
+        <v>114508</v>
+      </c>
+      <c r="H26">
+        <v>114508</v>
+      </c>
+      <c r="I26">
+        <v>114508</v>
+      </c>
+      <c r="J26">
+        <v>114508</v>
+      </c>
+      <c r="K26">
+        <v>115377</v>
+      </c>
+      <c r="L26">
+        <v>115377</v>
+      </c>
+      <c r="M26">
+        <v>114508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <v>1332</v>
+      </c>
+      <c r="C27">
+        <v>1332</v>
+      </c>
+      <c r="D27">
+        <v>1332</v>
+      </c>
+      <c r="E27">
+        <v>1332</v>
+      </c>
+      <c r="F27">
+        <v>1332</v>
+      </c>
+      <c r="G27">
+        <v>7513</v>
+      </c>
+      <c r="H27">
+        <v>5096</v>
+      </c>
+      <c r="I27">
+        <v>3462</v>
+      </c>
+      <c r="J27">
+        <v>2441</v>
+      </c>
+      <c r="K27">
+        <v>6015</v>
+      </c>
+      <c r="L27">
+        <v>5056</v>
+      </c>
+      <c r="M27">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28">
+        <v>1874</v>
+      </c>
+      <c r="C28">
+        <v>17440</v>
+      </c>
+      <c r="D28">
+        <v>1874</v>
+      </c>
+      <c r="E28">
+        <v>1874</v>
+      </c>
+      <c r="F28">
+        <v>1874</v>
+      </c>
+      <c r="G28">
+        <v>11259</v>
+      </c>
+      <c r="H28">
+        <v>3820</v>
+      </c>
+      <c r="I28">
+        <v>2733</v>
+      </c>
+      <c r="J28">
+        <v>2237</v>
+      </c>
+      <c r="K28">
+        <v>7020</v>
+      </c>
+      <c r="L28">
+        <v>5366</v>
+      </c>
+      <c r="M28">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29">
+        <v>1823</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1825</v>
+      </c>
+      <c r="E29">
+        <v>1823</v>
+      </c>
+      <c r="F29">
+        <v>1823</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>4380</v>
+      </c>
+      <c r="I29">
+        <v>2818</v>
+      </c>
+      <c r="J29">
+        <v>2144</v>
+      </c>
+      <c r="K29">
+        <v>4868</v>
+      </c>
+      <c r="L29">
+        <v>4139</v>
+      </c>
+      <c r="M29">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>1444</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>13741</v>
+      </c>
+      <c r="E30">
+        <v>1444</v>
+      </c>
+      <c r="F30">
+        <v>1444</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>5476</v>
+      </c>
+      <c r="I30">
+        <v>3071</v>
+      </c>
+      <c r="J30">
+        <v>1869</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>2550</v>
+      </c>
+      <c r="M30">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31">
+        <v>1151</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1151</v>
+      </c>
+      <c r="F31">
+        <v>1151</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>3085</v>
+      </c>
+      <c r="J31">
+        <v>1611</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>792</v>
+      </c>
+      <c r="M31">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>942</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>943</v>
+      </c>
+      <c r="F32">
+        <v>942</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>2380</v>
+      </c>
+      <c r="J32">
+        <v>1646</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>779</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>810</v>
+      </c>
+      <c r="F33">
+        <v>779</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1214</v>
+      </c>
+      <c r="J33">
+        <v>2154</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>671</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>9395</v>
+      </c>
+      <c r="F34">
+        <v>671</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34">
+        <v>4195</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -2891,10 +4356,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2985,7 +4450,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -3028,11 +4493,77 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3467,47 +4998,47 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <f>SUM(B18, B19)</f>
+        <f t="shared" ref="B20:J20" si="0">SUM(B18, B19)</f>
         <v>0</v>
       </c>
       <c r="C20">
-        <f>SUM(C18, C19)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="D20">
-        <f>SUM(D18, D19)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="E20">
-        <f>SUM(E18, E19)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="F20">
-        <f>SUM(F18, F19)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="G20">
-        <f>SUM(G18, G19)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="H20">
-        <f>SUM(H18, H19)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="I20">
-        <f>SUM(I18, I19)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="J20">
-        <f>SUM(J18, J19)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:L20" si="0">SUM(K18, K19)</f>
+        <f t="shared" ref="K20:L20" si="1">SUM(K18, K19)</f>
         <v>56</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="M20">
@@ -3522,47 +5053,47 @@
         <v>24</v>
       </c>
       <c r="B21" s="2">
-        <f>B18/56</f>
+        <f t="shared" ref="B21:J21" si="2">B18/56</f>
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <f>C18/56</f>
+        <f t="shared" si="2"/>
         <v>0.8928571428571429</v>
       </c>
       <c r="D21" s="2">
-        <f>D18/56</f>
+        <f t="shared" si="2"/>
         <v>0.9464285714285714</v>
       </c>
       <c r="E21" s="2">
-        <f>E18/56</f>
+        <f t="shared" si="2"/>
         <v>0.9642857142857143</v>
       </c>
       <c r="F21" s="2">
-        <f>F18/56</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <f>G18/56</f>
+        <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="H21" s="2">
-        <f>H18/56</f>
+        <f t="shared" si="2"/>
         <v>0.8928571428571429</v>
       </c>
       <c r="I21" s="2">
-        <f>I18/56</f>
+        <f t="shared" si="2"/>
         <v>0.9464285714285714</v>
       </c>
       <c r="J21" s="2">
-        <f>J18/56</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" ref="K21:L21" si="1">K18/56</f>
+        <f t="shared" ref="K21:L21" si="3">K18/56</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="M21" s="2">
@@ -3575,47 +5106,47 @@
         <v>25</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" ref="B22:B23" si="2">B19/56</f>
+        <f t="shared" ref="B22:B23" si="4">B19/56</f>
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <f>C19/56</f>
+        <f t="shared" ref="C22:J23" si="5">C19/56</f>
         <v>0.10714285714285714</v>
       </c>
       <c r="D22" s="2">
-        <f>D19/56</f>
+        <f t="shared" si="5"/>
         <v>5.3571428571428568E-2</v>
       </c>
       <c r="E22" s="2">
-        <f>E19/56</f>
+        <f t="shared" si="5"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="F22" s="2">
-        <f>F19/56</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <f>G19/56</f>
+        <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="H22" s="2">
-        <f>H19/56</f>
+        <f t="shared" si="5"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="I22" s="2">
-        <f>I19/56</f>
+        <f t="shared" si="5"/>
         <v>5.3571428571428568E-2</v>
       </c>
       <c r="J22" s="2">
-        <f>J19/56</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" ref="K22:L22" si="3">K19/56</f>
+        <f t="shared" ref="K22:L22" si="6">K19/56</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="M22" s="2">
@@ -3628,52 +5159,384 @@
         <v>26</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <f>C20/56</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <f>D20/56</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E23" s="2">
-        <f>E20/56</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <f>F20/56</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <f>G20/56</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H23" s="2">
-        <f>H20/56</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I23" s="2">
-        <f>I20/56</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J23" s="2">
-        <f>J20/56</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:L23" si="4">K20/56</f>
+        <f t="shared" ref="K23:L23" si="7">K20/56</f>
         <v>1</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M23" s="2">
         <f>M20/56</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>11</v>
+      </c>
+      <c r="L26">
+        <v>11</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <v>11406</v>
+      </c>
+      <c r="C27">
+        <v>11406</v>
+      </c>
+      <c r="D27">
+        <v>11406</v>
+      </c>
+      <c r="E27">
+        <v>11406</v>
+      </c>
+      <c r="F27">
+        <v>11406</v>
+      </c>
+      <c r="G27">
+        <v>22491</v>
+      </c>
+      <c r="H27">
+        <v>14634</v>
+      </c>
+      <c r="I27">
+        <v>11503</v>
+      </c>
+      <c r="J27">
+        <v>11407</v>
+      </c>
+      <c r="K27">
+        <v>2996</v>
+      </c>
+      <c r="L27">
+        <v>2996</v>
+      </c>
+      <c r="M27">
+        <v>13073</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28">
+        <v>3977</v>
+      </c>
+      <c r="C28">
+        <v>25286</v>
+      </c>
+      <c r="D28">
+        <v>3977</v>
+      </c>
+      <c r="E28">
+        <v>3977</v>
+      </c>
+      <c r="F28">
+        <v>3977</v>
+      </c>
+      <c r="G28">
+        <v>14201</v>
+      </c>
+      <c r="H28">
+        <v>6525</v>
+      </c>
+      <c r="I28">
+        <v>4341</v>
+      </c>
+      <c r="J28">
+        <v>3989</v>
+      </c>
+      <c r="K28">
+        <v>23129</v>
+      </c>
+      <c r="L28">
+        <v>21254</v>
+      </c>
+      <c r="M28">
+        <v>8211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29">
+        <v>5923</v>
+      </c>
+      <c r="D29">
+        <v>5924</v>
+      </c>
+      <c r="E29">
+        <v>5923</v>
+      </c>
+      <c r="F29">
+        <v>5923</v>
+      </c>
+      <c r="H29">
+        <v>9494</v>
+      </c>
+      <c r="I29">
+        <v>6832</v>
+      </c>
+      <c r="J29">
+        <v>5961</v>
+      </c>
+      <c r="K29">
+        <v>7848</v>
+      </c>
+      <c r="L29">
+        <v>7153</v>
+      </c>
+      <c r="M29">
+        <v>9106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>3738</v>
+      </c>
+      <c r="D30">
+        <v>15385</v>
+      </c>
+      <c r="E30">
+        <v>3738</v>
+      </c>
+      <c r="F30">
+        <v>3738</v>
+      </c>
+      <c r="H30">
+        <v>6039</v>
+      </c>
+      <c r="I30">
+        <v>5639</v>
+      </c>
+      <c r="J30">
+        <v>3857</v>
+      </c>
+      <c r="K30">
+        <v>2719</v>
+      </c>
+      <c r="L30">
+        <v>3247</v>
+      </c>
+      <c r="M30">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31">
+        <v>2358</v>
+      </c>
+      <c r="E31">
+        <v>2359</v>
+      </c>
+      <c r="F31">
+        <v>2358</v>
+      </c>
+      <c r="I31">
+        <v>4401</v>
+      </c>
+      <c r="J31">
+        <v>2646</v>
+      </c>
+      <c r="L31">
+        <v>1561</v>
+      </c>
+      <c r="M31">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>2229</v>
+      </c>
+      <c r="E32">
+        <v>2230</v>
+      </c>
+      <c r="F32">
+        <v>2229</v>
+      </c>
+      <c r="I32">
+        <v>2469</v>
+      </c>
+      <c r="J32">
+        <v>2865</v>
+      </c>
+      <c r="L32">
+        <v>481</v>
+      </c>
+      <c r="M32">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>1156</v>
+      </c>
+      <c r="E33">
+        <v>1217</v>
+      </c>
+      <c r="F33">
+        <v>1156</v>
+      </c>
+      <c r="I33">
+        <v>1498</v>
+      </c>
+      <c r="J33">
+        <v>1868</v>
+      </c>
+      <c r="M33">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>817</v>
+      </c>
+      <c r="E34">
+        <v>5842</v>
+      </c>
+      <c r="F34">
+        <v>817</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34">
+        <v>1820</v>
+      </c>
+      <c r="M34">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3683,10 +5546,1154 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A24" sqref="A24:A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>13895</v>
+      </c>
+      <c r="C2">
+        <v>10474</v>
+      </c>
+      <c r="D2">
+        <v>13014</v>
+      </c>
+      <c r="E2">
+        <v>13750</v>
+      </c>
+      <c r="F2">
+        <v>13895</v>
+      </c>
+      <c r="G2">
+        <v>9862</v>
+      </c>
+      <c r="H2">
+        <v>12030</v>
+      </c>
+      <c r="I2">
+        <v>12835</v>
+      </c>
+      <c r="J2">
+        <v>13287</v>
+      </c>
+      <c r="K2">
+        <v>9685</v>
+      </c>
+      <c r="L2">
+        <v>10728</v>
+      </c>
+      <c r="M2">
+        <v>9731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>6474</v>
+      </c>
+      <c r="C6">
+        <v>6474</v>
+      </c>
+      <c r="D6">
+        <v>6474</v>
+      </c>
+      <c r="E6">
+        <v>6474</v>
+      </c>
+      <c r="F6">
+        <v>6474</v>
+      </c>
+      <c r="G6">
+        <v>6474</v>
+      </c>
+      <c r="H6">
+        <v>6474</v>
+      </c>
+      <c r="I6">
+        <v>6474</v>
+      </c>
+      <c r="J6">
+        <v>6474</v>
+      </c>
+      <c r="K6">
+        <v>6474</v>
+      </c>
+      <c r="L6">
+        <v>6474</v>
+      </c>
+      <c r="M6">
+        <v>6455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <v>1000</v>
+      </c>
+      <c r="K9">
+        <v>1000</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+      <c r="M9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>790</v>
+      </c>
+      <c r="D10">
+        <v>941</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>699</v>
+      </c>
+      <c r="H10">
+        <v>756</v>
+      </c>
+      <c r="I10">
+        <v>792</v>
+      </c>
+      <c r="J10">
+        <v>809</v>
+      </c>
+      <c r="K10">
+        <v>824</v>
+      </c>
+      <c r="L10">
+        <v>888</v>
+      </c>
+      <c r="M10">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>197</v>
+      </c>
+      <c r="D11">
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>284</v>
+      </c>
+      <c r="H11">
+        <v>239</v>
+      </c>
+      <c r="I11">
+        <v>204</v>
+      </c>
+      <c r="J11">
+        <v>188</v>
+      </c>
+      <c r="K11">
+        <v>163</v>
+      </c>
+      <c r="L11">
+        <v>107</v>
+      </c>
+      <c r="M11">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C17,C18)</f>
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:O19" si="0">SUM(D17,D18)</f>
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <f>SUM(K17,K18)</f>
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <f>SUM(L17,L18)</f>
+        <v>15</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <f>C17/15</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:O22" si="1">D17/15</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <f>E17/15</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <f>K17/15</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="L20" s="2">
+        <f>L17/15</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <f t="shared" ref="C21:L22" si="2">C18/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <f>K18/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L21" s="2">
+        <f>L18/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <f>K19/15</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <f>L19/15</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>2365</v>
+      </c>
+      <c r="C26">
+        <v>2365</v>
+      </c>
+      <c r="D26">
+        <v>2365</v>
+      </c>
+      <c r="E26">
+        <v>2365</v>
+      </c>
+      <c r="F26">
+        <v>2365</v>
+      </c>
+      <c r="G26">
+        <v>2769</v>
+      </c>
+      <c r="H26">
+        <v>2388</v>
+      </c>
+      <c r="I26">
+        <v>2366</v>
+      </c>
+      <c r="J26">
+        <v>2365</v>
+      </c>
+      <c r="K26">
+        <v>5082</v>
+      </c>
+      <c r="L26">
+        <v>4827</v>
+      </c>
+      <c r="M26">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>2143</v>
+      </c>
+      <c r="C27">
+        <v>4109</v>
+      </c>
+      <c r="D27">
+        <v>2143</v>
+      </c>
+      <c r="E27">
+        <v>2143</v>
+      </c>
+      <c r="F27">
+        <v>2143</v>
+      </c>
+      <c r="G27">
+        <v>3705</v>
+      </c>
+      <c r="H27">
+        <v>2321</v>
+      </c>
+      <c r="I27">
+        <v>2165</v>
+      </c>
+      <c r="J27">
+        <v>2144</v>
+      </c>
+      <c r="K27">
+        <v>1213</v>
+      </c>
+      <c r="L27">
+        <v>1399</v>
+      </c>
+      <c r="M27">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>1171</v>
+      </c>
+      <c r="D28">
+        <v>1176</v>
+      </c>
+      <c r="E28">
+        <v>1171</v>
+      </c>
+      <c r="F28">
+        <v>1171</v>
+      </c>
+      <c r="H28">
+        <v>1463</v>
+      </c>
+      <c r="I28">
+        <v>1306</v>
+      </c>
+      <c r="J28">
+        <v>1191</v>
+      </c>
+      <c r="K28">
+        <v>179</v>
+      </c>
+      <c r="L28">
+        <v>165</v>
+      </c>
+      <c r="M28">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29">
+        <v>438</v>
+      </c>
+      <c r="D29">
+        <v>790</v>
+      </c>
+      <c r="E29">
+        <v>438</v>
+      </c>
+      <c r="F29">
+        <v>438</v>
+      </c>
+      <c r="H29">
+        <v>302</v>
+      </c>
+      <c r="I29">
+        <v>482</v>
+      </c>
+      <c r="J29">
+        <v>501</v>
+      </c>
+      <c r="L29">
+        <v>48</v>
+      </c>
+      <c r="M29">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>160</v>
+      </c>
+      <c r="E30">
+        <v>160</v>
+      </c>
+      <c r="F30">
+        <v>160</v>
+      </c>
+      <c r="I30">
+        <v>155</v>
+      </c>
+      <c r="J30">
+        <v>162</v>
+      </c>
+      <c r="L30">
+        <v>35</v>
+      </c>
+      <c r="M30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31">
+        <v>71</v>
+      </c>
+      <c r="E31">
+        <v>74</v>
+      </c>
+      <c r="F31">
+        <v>71</v>
+      </c>
+      <c r="J31">
+        <v>77</v>
+      </c>
+      <c r="M31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>32</v>
+      </c>
+      <c r="F32">
+        <v>26</v>
+      </c>
+      <c r="J32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="E33">
+        <v>91</v>
+      </c>
+      <c r="F33">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S33"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3717,7 +6724,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -3777,7 +6784,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -3820,15 +6827,81 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>75877</v>
@@ -4176,7 +7249,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>100</v>
@@ -4214,7 +7287,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -4255,51 +7328,51 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <f>SUM(B17, B18)</f>
+        <f t="shared" ref="B19:M19" si="0">SUM(B17, B18)</f>
         <v>0</v>
       </c>
       <c r="C19">
-        <f>SUM(C17, C18)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="D19">
-        <f>SUM(D17, D18)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="E19">
-        <f>SUM(E17, E18)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="F19">
-        <f>SUM(F17, F18)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="G19">
-        <f>SUM(G17, G18)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="H19">
-        <f>SUM(H17, H18)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="I19">
-        <f>SUM(I17, I18)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="J19">
-        <f>SUM(J17, J18)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="K19">
-        <f>SUM(K17, K18)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="L19">
-        <f>SUM(L17, L18)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="M19">
-        <f>SUM(M17, M18)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
     </row>
@@ -4308,51 +7381,51 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <f>B17/114</f>
+        <f t="shared" ref="B20:M20" si="1">B17/114</f>
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <f>C17/114</f>
+        <f t="shared" si="1"/>
         <v>0.8771929824561403</v>
       </c>
       <c r="D20" s="2">
-        <f>D17/114</f>
+        <f t="shared" si="1"/>
         <v>0.90350877192982459</v>
       </c>
       <c r="E20" s="2">
-        <f>E17/114</f>
+        <f t="shared" si="1"/>
         <v>0.92105263157894735</v>
       </c>
       <c r="F20" s="2">
-        <f>F17/114</f>
+        <f t="shared" si="1"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="G20" s="2">
-        <f>G17/114</f>
+        <f t="shared" si="1"/>
         <v>0.88596491228070173</v>
       </c>
       <c r="H20" s="2">
-        <f>H17/114</f>
+        <f t="shared" si="1"/>
         <v>0.92105263157894735</v>
       </c>
       <c r="I20" s="2">
-        <f>I17/114</f>
+        <f t="shared" si="1"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="J20" s="2">
-        <f>J17/114</f>
+        <f t="shared" si="1"/>
         <v>0.96491228070175439</v>
       </c>
       <c r="K20" s="2">
-        <f>K17/114</f>
+        <f t="shared" si="1"/>
         <v>0.92105263157894735</v>
       </c>
       <c r="L20" s="2">
-        <f>L17/114</f>
+        <f t="shared" si="1"/>
         <v>0.92982456140350878</v>
       </c>
       <c r="M20" s="2">
-        <f>M17/114</f>
+        <f t="shared" si="1"/>
         <v>0.90350877192982459</v>
       </c>
     </row>
@@ -4361,51 +7434,51 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" ref="B21:B22" si="0">B18/114</f>
+        <f t="shared" ref="B21:B22" si="2">B18/114</f>
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <f>C18/114</f>
+        <f t="shared" ref="C21:M21" si="3">C18/114</f>
         <v>0.12280701754385964</v>
       </c>
       <c r="D21" s="2">
-        <f>D18/114</f>
+        <f t="shared" si="3"/>
         <v>9.6491228070175433E-2</v>
       </c>
       <c r="E21" s="2">
-        <f>E18/114</f>
+        <f t="shared" si="3"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="F21" s="2">
-        <f>F18/114</f>
+        <f t="shared" si="3"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="G21" s="2">
-        <f>G18/114</f>
+        <f t="shared" si="3"/>
         <v>0.11403508771929824</v>
       </c>
       <c r="H21" s="2">
-        <f>H18/114</f>
+        <f t="shared" si="3"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="I21" s="2">
-        <f>I18/114</f>
+        <f t="shared" si="3"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="J21" s="2">
-        <f>J18/114</f>
+        <f t="shared" si="3"/>
         <v>3.5087719298245612E-2</v>
       </c>
       <c r="K21" s="2">
-        <f>K18/114</f>
+        <f t="shared" si="3"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="L21" s="2">
-        <f>L18/114</f>
+        <f t="shared" si="3"/>
         <v>7.0175438596491224E-2</v>
       </c>
       <c r="M21" s="2">
-        <f>M18/114</f>
+        <f t="shared" si="3"/>
         <v>9.6491228070175433E-2</v>
       </c>
     </row>
@@ -4414,52 +7487,378 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <f>C19/114</f>
+        <f t="shared" ref="C22:M22" si="4">C19/114</f>
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <f>D19/114</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E22" s="2">
-        <f>E19/114</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F22" s="2">
-        <f>F19/114</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G22" s="2">
-        <f>G19/114</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <f>H19/114</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I22" s="2">
-        <f>I19/114</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J22" s="2">
-        <f>J19/114</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K22" s="2">
-        <f>K19/114</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <f>L19/114</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <f>M19/114</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>67</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>11</v>
+      </c>
+      <c r="L25">
+        <v>11</v>
+      </c>
+      <c r="M25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>38579</v>
+      </c>
+      <c r="C26">
+        <v>38581</v>
+      </c>
+      <c r="D26">
+        <v>38579</v>
+      </c>
+      <c r="E26">
+        <v>38579</v>
+      </c>
+      <c r="F26">
+        <v>38579</v>
+      </c>
+      <c r="G26">
+        <v>40130</v>
+      </c>
+      <c r="H26">
+        <v>38925</v>
+      </c>
+      <c r="I26">
+        <v>38605</v>
+      </c>
+      <c r="J26">
+        <v>38579</v>
+      </c>
+      <c r="K26">
+        <v>55603</v>
+      </c>
+      <c r="L26">
+        <v>52002</v>
+      </c>
+      <c r="M26">
+        <v>43655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>11981</v>
+      </c>
+      <c r="C27">
+        <v>37298</v>
+      </c>
+      <c r="D27">
+        <v>11981</v>
+      </c>
+      <c r="E27">
+        <v>11981</v>
+      </c>
+      <c r="F27">
+        <v>11981</v>
+      </c>
+      <c r="G27">
+        <v>35749</v>
+      </c>
+      <c r="H27">
+        <v>12884</v>
+      </c>
+      <c r="I27">
+        <v>12079</v>
+      </c>
+      <c r="J27">
+        <v>11986</v>
+      </c>
+      <c r="K27">
+        <v>15900</v>
+      </c>
+      <c r="L27">
+        <v>14777</v>
+      </c>
+      <c r="M27">
+        <v>16970</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>5685</v>
+      </c>
+      <c r="D28">
+        <v>5695</v>
+      </c>
+      <c r="E28">
+        <v>5685</v>
+      </c>
+      <c r="F28">
+        <v>5685</v>
+      </c>
+      <c r="H28">
+        <v>7020</v>
+      </c>
+      <c r="I28">
+        <v>5950</v>
+      </c>
+      <c r="J28">
+        <v>5697</v>
+      </c>
+      <c r="K28">
+        <v>3474</v>
+      </c>
+      <c r="L28">
+        <v>6460</v>
+      </c>
+      <c r="M28">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29">
+        <v>3408</v>
+      </c>
+      <c r="D29">
+        <v>19624</v>
+      </c>
+      <c r="E29">
+        <v>3408</v>
+      </c>
+      <c r="F29">
+        <v>3408</v>
+      </c>
+      <c r="H29">
+        <v>17050</v>
+      </c>
+      <c r="I29">
+        <v>3985</v>
+      </c>
+      <c r="J29">
+        <v>3453</v>
+      </c>
+      <c r="L29">
+        <v>2187</v>
+      </c>
+      <c r="M29">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>2315</v>
+      </c>
+      <c r="E30">
+        <v>2315</v>
+      </c>
+      <c r="F30">
+        <v>2315</v>
+      </c>
+      <c r="I30">
+        <v>3178</v>
+      </c>
+      <c r="J30">
+        <v>2394</v>
+      </c>
+      <c r="L30">
+        <v>451</v>
+      </c>
+      <c r="M30">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31">
+        <v>1711</v>
+      </c>
+      <c r="E31">
+        <v>1712</v>
+      </c>
+      <c r="F31">
+        <v>1711</v>
+      </c>
+      <c r="I31">
+        <v>2234</v>
+      </c>
+      <c r="J31">
+        <v>1869</v>
+      </c>
+      <c r="M31">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32">
+        <v>1180</v>
+      </c>
+      <c r="E32">
+        <v>1191</v>
+      </c>
+      <c r="F32">
+        <v>1180</v>
+      </c>
+      <c r="I32">
+        <v>1645</v>
+      </c>
+      <c r="J32">
+        <v>1538</v>
+      </c>
+      <c r="M32">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>873</v>
+      </c>
+      <c r="E33">
+        <v>11008</v>
+      </c>
+      <c r="F33">
+        <v>873</v>
+      </c>
+      <c r="I33">
+        <v>8203</v>
+      </c>
+      <c r="J33">
+        <v>1424</v>
+      </c>
+      <c r="M33">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -4467,12 +7866,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4561,7 +7960,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -4604,15 +8003,81 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>24</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>1134890</v>
@@ -4838,7 +8303,7 @@
         <v>18</v>
       </c>
       <c r="L12">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="M12">
         <v>19</v>
@@ -4960,7 +8425,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>1633</v>
@@ -4998,7 +8463,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>104</v>
@@ -5039,51 +8504,51 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <f>SUM(B17, B18)</f>
+        <f t="shared" ref="B19:M19" si="0">SUM(B17, B18)</f>
         <v>0</v>
       </c>
       <c r="C19">
-        <f>SUM(C17, C18)</f>
+        <f t="shared" si="0"/>
         <v>1737</v>
       </c>
       <c r="D19">
-        <f>SUM(D17, D18)</f>
+        <f t="shared" si="0"/>
         <v>1737</v>
       </c>
       <c r="E19">
-        <f>SUM(E17, E18)</f>
+        <f t="shared" si="0"/>
         <v>1737</v>
       </c>
       <c r="F19">
-        <f>SUM(F17, F18)</f>
+        <f t="shared" si="0"/>
         <v>1737</v>
       </c>
       <c r="G19">
-        <f>SUM(G17, G18)</f>
+        <f t="shared" si="0"/>
         <v>1737</v>
       </c>
       <c r="H19">
-        <f>SUM(H17, H18)</f>
+        <f t="shared" si="0"/>
         <v>1737</v>
       </c>
       <c r="I19">
-        <f>SUM(I17, I18)</f>
+        <f t="shared" si="0"/>
         <v>1737</v>
       </c>
       <c r="J19">
-        <f>SUM(J17, J18)</f>
+        <f t="shared" si="0"/>
         <v>1737</v>
       </c>
       <c r="K19">
-        <f>SUM(K17, K18)</f>
+        <f t="shared" si="0"/>
         <v>1737</v>
       </c>
       <c r="L19">
-        <f>SUM(L17, L18)</f>
+        <f t="shared" si="0"/>
         <v>1737</v>
       </c>
       <c r="M19">
-        <f>SUM(M17, M18)</f>
+        <f t="shared" si="0"/>
         <v>1737</v>
       </c>
     </row>
@@ -5092,51 +8557,51 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <f>B17/1737</f>
+        <f t="shared" ref="B20:J20" si="1">B17/1737</f>
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <f>C17/1737</f>
+        <f t="shared" si="1"/>
         <v>0.94012665515256189</v>
       </c>
       <c r="D20" s="2">
-        <f>D17/1737</f>
+        <f t="shared" si="1"/>
         <v>0.9654576856649395</v>
       </c>
       <c r="E20" s="2">
-        <f>E17/1737</f>
+        <f t="shared" si="1"/>
         <v>0.98388025331030515</v>
       </c>
       <c r="F20" s="2">
-        <f>F17/1737</f>
+        <f t="shared" si="1"/>
         <v>0.99309153713298792</v>
       </c>
       <c r="G20" s="2">
-        <f>G17/1737</f>
+        <f t="shared" si="1"/>
         <v>0.94242947610823258</v>
       </c>
       <c r="H20" s="2">
-        <f>H17/1737</f>
+        <f t="shared" si="1"/>
         <v>0.97063903281519859</v>
       </c>
       <c r="I20" s="2">
-        <f>I17/1737</f>
+        <f t="shared" si="1"/>
         <v>0.98503166378814044</v>
       </c>
       <c r="J20" s="2">
-        <f>J17/1737</f>
+        <f t="shared" si="1"/>
         <v>0.99021301093839953</v>
       </c>
       <c r="K20" s="2">
-        <f>K17/1736</f>
+        <f t="shared" ref="K20:M22" si="2">K17/1736</f>
         <v>0.90898617511520741</v>
       </c>
       <c r="L20" s="2">
-        <f>L17/1736</f>
+        <f t="shared" si="2"/>
         <v>0.93605990783410142</v>
       </c>
       <c r="M20" s="2">
-        <f>M17/1736</f>
+        <f t="shared" si="2"/>
         <v>0.9429723502304147</v>
       </c>
     </row>
@@ -5145,51 +8610,51 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" ref="B21:B22" si="0">B18/1737</f>
+        <f t="shared" ref="B21:B22" si="3">B18/1737</f>
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <f>C18/1737</f>
+        <f t="shared" ref="C21:J22" si="4">C18/1737</f>
         <v>5.9873344847438115E-2</v>
       </c>
       <c r="D21" s="2">
-        <f>D18/1737</f>
+        <f t="shared" si="4"/>
         <v>3.4542314335060449E-2</v>
       </c>
       <c r="E21" s="2">
-        <f>E18/1737</f>
+        <f t="shared" si="4"/>
         <v>1.6119746689694875E-2</v>
       </c>
       <c r="F21" s="2">
-        <f>F18/1737</f>
+        <f t="shared" si="4"/>
         <v>6.9084628670120895E-3</v>
       </c>
       <c r="G21" s="2">
-        <f>G18/1737</f>
+        <f t="shared" si="4"/>
         <v>5.7570523891767415E-2</v>
       </c>
       <c r="H21" s="2">
-        <f>H18/1737</f>
+        <f t="shared" si="4"/>
         <v>2.9360967184801381E-2</v>
       </c>
       <c r="I21" s="2">
-        <f>I18/1737</f>
+        <f t="shared" si="4"/>
         <v>1.4968336211859529E-2</v>
       </c>
       <c r="J21" s="2">
-        <f>J18/1737</f>
+        <f t="shared" si="4"/>
         <v>9.7869890616004603E-3</v>
       </c>
       <c r="K21" s="2">
-        <f>K18/1736</f>
+        <f t="shared" si="2"/>
         <v>9.158986175115208E-2</v>
       </c>
       <c r="L21" s="2">
-        <f>L18/1736</f>
+        <f t="shared" si="2"/>
         <v>6.4516129032258063E-2</v>
       </c>
       <c r="M21" s="2">
-        <f>M18/1736</f>
+        <f t="shared" si="2"/>
         <v>5.7603686635944701E-2</v>
       </c>
     </row>
@@ -5198,52 +8663,381 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <f>C19/1737</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <f>D19/1737</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E22" s="2">
-        <f>E19/1737</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F22" s="2">
-        <f>F19/1737</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G22" s="2">
-        <f>G19/1737</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <f>H19/1737</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I22" s="2">
-        <f>I19/1737</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J22" s="2">
-        <f>J19/1737</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K22" s="2">
-        <f>K19/1736</f>
+        <f t="shared" si="2"/>
         <v>1.0005760368663594</v>
       </c>
       <c r="L22" s="2">
-        <f>L19/1736</f>
+        <f t="shared" si="2"/>
         <v>1.0005760368663594</v>
       </c>
       <c r="M22" s="2">
-        <f>M19/1736</f>
+        <f t="shared" si="2"/>
         <v>1.0005760368663594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>22938</v>
+      </c>
+      <c r="C25">
+        <v>22938</v>
+      </c>
+      <c r="D25">
+        <v>22938</v>
+      </c>
+      <c r="E25">
+        <v>22938</v>
+      </c>
+      <c r="F25">
+        <v>22938</v>
+      </c>
+      <c r="G25">
+        <v>22938</v>
+      </c>
+      <c r="H25">
+        <v>22938</v>
+      </c>
+      <c r="I25">
+        <v>22938</v>
+      </c>
+      <c r="J25">
+        <v>22938</v>
+      </c>
+      <c r="K25">
+        <v>22938</v>
+      </c>
+      <c r="L25">
+        <v>22938</v>
+      </c>
+      <c r="M25">
+        <v>22938</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>664726</v>
+      </c>
+      <c r="C26">
+        <v>644927</v>
+      </c>
+      <c r="D26">
+        <v>664726</v>
+      </c>
+      <c r="E26">
+        <v>664726</v>
+      </c>
+      <c r="F26">
+        <v>664726</v>
+      </c>
+      <c r="G26">
+        <v>674414</v>
+      </c>
+      <c r="H26">
+        <v>666011</v>
+      </c>
+      <c r="I26">
+        <v>664810</v>
+      </c>
+      <c r="J26">
+        <v>664727</v>
+      </c>
+      <c r="K26">
+        <v>946542</v>
+      </c>
+      <c r="L26">
+        <v>869329</v>
+      </c>
+      <c r="M26">
+        <v>885119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>201443</v>
+      </c>
+      <c r="C27">
+        <v>4699663</v>
+      </c>
+      <c r="D27">
+        <v>201447</v>
+      </c>
+      <c r="E27">
+        <v>201443</v>
+      </c>
+      <c r="F27">
+        <v>201443</v>
+      </c>
+      <c r="G27">
+        <v>460425</v>
+      </c>
+      <c r="H27">
+        <v>207974</v>
+      </c>
+      <c r="I27">
+        <v>201897</v>
+      </c>
+      <c r="J27">
+        <v>201455</v>
+      </c>
+      <c r="K27">
+        <v>176932</v>
+      </c>
+      <c r="L27">
+        <v>203472</v>
+      </c>
+      <c r="M27">
+        <v>125301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>88297</v>
+      </c>
+      <c r="D28">
+        <v>89013</v>
+      </c>
+      <c r="E28">
+        <v>88297</v>
+      </c>
+      <c r="F28">
+        <v>88297</v>
+      </c>
+      <c r="G28">
+        <v>51</v>
+      </c>
+      <c r="H28">
+        <v>99200</v>
+      </c>
+      <c r="I28">
+        <v>90439</v>
+      </c>
+      <c r="J28">
+        <v>88370</v>
+      </c>
+      <c r="K28">
+        <v>11416</v>
+      </c>
+      <c r="L28">
+        <v>52311</v>
+      </c>
+      <c r="M28">
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29">
+        <v>47545</v>
+      </c>
+      <c r="D29">
+        <v>179704</v>
+      </c>
+      <c r="E29">
+        <v>47545</v>
+      </c>
+      <c r="F29">
+        <v>47545</v>
+      </c>
+      <c r="H29">
+        <v>161705</v>
+      </c>
+      <c r="I29">
+        <v>51972</v>
+      </c>
+      <c r="J29">
+        <v>47799</v>
+      </c>
+      <c r="L29">
+        <v>9516</v>
+      </c>
+      <c r="M29">
+        <v>23397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>28443</v>
+      </c>
+      <c r="E30">
+        <v>28446</v>
+      </c>
+      <c r="F30">
+        <v>28443</v>
+      </c>
+      <c r="I30">
+        <v>33541</v>
+      </c>
+      <c r="J30">
+        <v>29349</v>
+      </c>
+      <c r="L30">
+        <v>262</v>
+      </c>
+      <c r="M30">
+        <v>14115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31">
+        <v>19224</v>
+      </c>
+      <c r="E31">
+        <v>19310</v>
+      </c>
+      <c r="F31">
+        <v>19224</v>
+      </c>
+      <c r="I31">
+        <v>23381</v>
+      </c>
+      <c r="J31">
+        <v>21051</v>
+      </c>
+      <c r="M31">
+        <v>8858</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32">
+        <v>13968</v>
+      </c>
+      <c r="E32">
+        <v>15124</v>
+      </c>
+      <c r="F32">
+        <v>13968</v>
+      </c>
+      <c r="I32">
+        <v>18423</v>
+      </c>
+      <c r="J32">
+        <v>16444</v>
+      </c>
+      <c r="M32">
+        <v>64435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>10335</v>
+      </c>
+      <c r="E33">
+        <v>69999</v>
+      </c>
+      <c r="F33">
+        <v>10335</v>
+      </c>
+      <c r="I33">
+        <v>50427</v>
+      </c>
+      <c r="J33">
+        <v>13303</v>
+      </c>
+      <c r="M33">
+        <v>3496</v>
       </c>
     </row>
   </sheetData>
@@ -5251,11 +9045,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -5396,7 +9190,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>32223</v>
@@ -5744,7 +9538,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>100</v>
@@ -5782,7 +9576,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -5843,31 +9637,31 @@
         <v>114</v>
       </c>
       <c r="G19">
-        <f>SUM(G17, G18)</f>
+        <f t="shared" ref="G19:M19" si="1">SUM(G17, G18)</f>
         <v>114</v>
       </c>
       <c r="H19">
-        <f>SUM(H17, H18)</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="I19">
-        <f>SUM(I17, I18)</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="J19">
-        <f>SUM(J17, J18)</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="K19">
-        <f>SUM(K17, K18)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="L19">
-        <f>SUM(L17, L18)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="M19">
-        <f>SUM(M17, M18)</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
@@ -5880,47 +9674,47 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ref="C20:F22" si="1">C17/114</f>
+        <f t="shared" ref="C20:F22" si="2">C17/114</f>
         <v>0.8771929824561403</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98245614035087714</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G20" s="2">
-        <f>G17/114</f>
+        <f t="shared" ref="G20:M22" si="3">G17/114</f>
         <v>0.8771929824561403</v>
       </c>
       <c r="H20" s="2">
-        <f>H17/114</f>
+        <f t="shared" si="3"/>
         <v>0.98245614035087714</v>
       </c>
       <c r="I20" s="2">
-        <f>I17/114</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <f>J17/114</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <f>K17/114</f>
+        <f t="shared" si="3"/>
         <v>3.5087719298245612E-2</v>
       </c>
       <c r="L20" s="2">
-        <f>L17/114</f>
+        <f t="shared" si="3"/>
         <v>3.5087719298245612E-2</v>
       </c>
       <c r="M20" s="2">
-        <f>M17/114</f>
+        <f t="shared" si="3"/>
         <v>0.85087719298245612</v>
       </c>
     </row>
@@ -5933,47 +9727,47 @@
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12280701754385964</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <f>G18/114</f>
+        <f t="shared" si="3"/>
         <v>0.12280701754385964</v>
       </c>
       <c r="H21" s="2">
-        <f>H18/114</f>
+        <f t="shared" si="3"/>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="I21" s="2">
-        <f>I18/114</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <f>J18/114</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K21" s="2">
-        <f>K18/114</f>
+        <f t="shared" si="3"/>
         <v>0.39473684210526316</v>
       </c>
       <c r="L21" s="2">
-        <f>L18/114</f>
+        <f t="shared" si="3"/>
         <v>0.40350877192982454</v>
       </c>
       <c r="M21" s="2">
-        <f>M18/114</f>
+        <f t="shared" si="3"/>
         <v>0.14912280701754385</v>
       </c>
     </row>
@@ -5986,47 +9780,47 @@
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G22" s="2">
-        <f>G19/114</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <f>H19/114</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I22" s="2">
-        <f>I19/114</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J22" s="2">
-        <f>J19/114</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K22" s="2">
-        <f>K19/114</f>
+        <f t="shared" si="3"/>
         <v>0.42982456140350878</v>
       </c>
       <c r="L22" s="2">
-        <f>L19/114</f>
+        <f t="shared" si="3"/>
         <v>0.43859649122807015</v>
       </c>
       <c r="M22" s="2">
-        <f>M19/114</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6035,11 +9829,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -6129,7 +9923,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -6180,7 +9974,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>2316</v>
@@ -6262,7 +10056,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>5</v>
